--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690479.053182259</v>
+        <v>2688102.426234894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>130.9898714432076</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>87.99748334856753</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.4766399021956</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>185.2705165323374</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>56.16180278495393</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.7367844057995</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>139.2262475794317</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.588867942607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.36610313819131</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.84815278861451</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176339</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456787</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060188</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716619</v>
+        <v>18.70843787977355</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1653.287154902436</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2430.026326942369</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2430.026326942369</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2430.026326942369</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2430.026326942369</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="Y2" t="n">
-        <v>2039.886994966557</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>343.6260600182044</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>638.329617049676</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>939.770065904978</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="Y4" t="n">
-        <v>1119.039399139519</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554974</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554974</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>934.6665353554974</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>934.6665353554974</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>523.6806305658899</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>107.9758802901788</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>107.9758802901788</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4568,13 +4568,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>551.2876347907471</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
         <v>199.1598801503962</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854577</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>359.340338545046</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251366</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4887,19 +4887,19 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>751.3310369968233</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>582.3948540689164</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2782146565806</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>284.3651210741875</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>137.4751735762772</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1585.084349580947</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1388.455601740808</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1165.477120935544</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>876.3587834393812</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.979501827063</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,10 +6242,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7728,16 +7728,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024558</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.586274966449</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465737</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253364</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814929</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405072</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659054</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.415891427</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731966</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732034</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731959</v>
+        <v>8117.312426731889</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731884</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731936</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731963</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731957</v>
+        <v>8117.312426731889</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426731988</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731987</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.140386201</v>
+        <v>-685174.1403862007</v>
       </c>
       <c r="C6" t="n">
-        <v>429577.6431897184</v>
+        <v>429577.6431897185</v>
       </c>
       <c r="D6" t="n">
         <v>429577.6431897184</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.9958768201</v>
+        <v>28957.25795138394</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013657</v>
+        <v>536442.6995759308</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="J6" t="n">
-        <v>368872.2596913832</v>
+        <v>368837.5217659479</v>
       </c>
       <c r="K6" t="n">
-        <v>536477.4375013663</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="L6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759307</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.1437724396</v>
+        <v>403835.4058470036</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759306</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.6995759303</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26793,22 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>120.0553786852544</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>281.7336173299015</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.355340279741682</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>33.31413681975741</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>9.548109887516567</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.504184311613528</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546854</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>243.5075940840489</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807595</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.94049690661288</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.70941963095913</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-5.055516765897694e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312094</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,31 +33026,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>567.7870775946142</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33731,22 +33731,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,16 +34778,16 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.3523785537304</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820404</v>
-      </c>
       <c r="N3" t="n">
-        <v>577.7882979947784</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>316.0205096502334</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>530.1364971039797</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.323644686765</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>425.1908331501697</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
